--- a/project/DPVR-4CAM_DVT_BringUp/DPVR_4CAM_DVT Bringup Checklist.xlsx
+++ b/project/DPVR-4CAM_DVT_BringUp/DPVR_4CAM_DVT Bringup Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12975"/>
+    <workbookView windowWidth="20730" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="DPVR_4CAM_DVT " sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="179">
   <si>
     <t>DPVR_4CAM_DVT Bringup Checklist</t>
   </si>
@@ -449,7 +449,10 @@
     <t>BlackLight</t>
   </si>
   <si>
-    <t>亮度调节1~4档可调节.defualt 1</t>
+    <t>亮度上限调节1~4档可调节.对应电流：25MA,30MA,35MA,40MA</t>
+  </si>
+  <si>
+    <t>default 25mA.</t>
   </si>
   <si>
     <t>AUDIO</t>
@@ -524,7 +527,7 @@
     <t>Driver Tyep</t>
   </si>
   <si>
-    <t>AW2026DNR</t>
+    <t>AW2026DNR,</t>
   </si>
   <si>
     <t>工作态定义</t>
@@ -1749,11 +1752,11 @@
   <dimension ref="A2:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12592592592593" defaultRowHeight="15"/>
@@ -2917,7 +2920,9 @@
       <c r="E71" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F71" s="8"/>
+      <c r="F71" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
@@ -2925,14 +2930,14 @@
     </row>
     <row r="72" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B72" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="10"/>
@@ -2943,14 +2948,14 @@
     <row r="73" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B73" s="7"/>
       <c r="C73" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -2960,14 +2965,14 @@
     <row r="74" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B74" s="7"/>
       <c r="C74" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -2977,14 +2982,14 @@
     <row r="75" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B75" s="7"/>
       <c r="C75" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
@@ -2994,14 +2999,14 @@
     <row r="76" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B76" s="7"/>
       <c r="C76" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
@@ -3011,11 +3016,11 @@
     <row r="77" s="2" customFormat="1" ht="67.5" customHeight="1" spans="2:10">
       <c r="B77" s="7"/>
       <c r="C77" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="12"/>
@@ -3025,14 +3030,14 @@
     </row>
     <row r="78" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B78" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>86</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="10"/>
@@ -3043,11 +3048,11 @@
     <row r="79" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B79" s="7"/>
       <c r="C79" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="10"/>
@@ -3058,14 +3063,14 @@
     <row r="80" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B80" s="7"/>
       <c r="C80" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -3074,14 +3079,14 @@
     </row>
     <row r="81" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B81" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="10"/>
@@ -3092,14 +3097,14 @@
     <row r="82" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B82" s="7"/>
       <c r="C82" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
@@ -3108,7 +3113,7 @@
     </row>
     <row r="83" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B83" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>86</v>
@@ -3126,7 +3131,7 @@
     <row r="84" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B84" s="7"/>
       <c r="C84" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8" t="s">
@@ -3141,7 +3146,7 @@
     <row r="85" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B85" s="7"/>
       <c r="C85" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8" t="s">
@@ -3155,17 +3160,17 @@
     </row>
     <row r="86" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B86" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
@@ -3175,14 +3180,14 @@
     <row r="87" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B87" s="7"/>
       <c r="C87" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
@@ -3192,14 +3197,14 @@
     <row r="88" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
@@ -3209,14 +3214,14 @@
     <row r="89" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B89" s="7"/>
       <c r="C89" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
@@ -3226,14 +3231,14 @@
     <row r="90" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B90" s="7"/>
       <c r="C90" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
@@ -3243,11 +3248,11 @@
     <row r="91" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B91" s="7"/>
       <c r="C91" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="10"/>
@@ -3258,14 +3263,14 @@
     <row r="92" s="2" customFormat="1" ht="45" customHeight="1" spans="2:10">
       <c r="B92" s="17"/>
       <c r="C92" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
